--- a/biology/Médecine/Épidermolyse_toxinique_staphylococcique_du_nouveau-né/Épidermolyse_toxinique_staphylococcique_du_nouveau-né.xlsx
+++ b/biology/Médecine/Épidermolyse_toxinique_staphylococcique_du_nouveau-né/Épidermolyse_toxinique_staphylococcique_du_nouveau-né.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_toxinique_staphylococcique_du_nouveau-n%C3%A9</t>
+          <t>Épidermolyse_toxinique_staphylococcique_du_nouveau-né</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Épidermolyse toxinique staphylococcique du nouveau-né est une dermatose bulleuse causée par l'exfoliatine A, une toxine produite par le staphylocoque doré. Le staphylocoque doré est également responsable de l'impétigo chez les enfants.
 L'exfoliatine A provoque un décollement bulleux très étendu par clivage spécifique de la desmogléine de type 1, sur une peau rouge (érythémateuse). Elle ne doit pas être confondue avec l'épidermolyse bulleuse d'origine génétique, donc héréditaire.
